--- a/frontend/web/files/Dashboard Metas Operacion.xlsx
+++ b/frontend/web/files/Dashboard Metas Operacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FD68B3-86DB-4D79-A665-262E35FC2FF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD5E897-C1C5-474A-9673-65515FA80CD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" xr2:uid="{A9C8D3C2-3EC5-47B7-9C2C-5DDAF4DA4BE5}"/>
   </bookViews>
@@ -391,7 +391,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,6 +413,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -528,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -556,6 +564,7 @@
     <xf numFmtId="10" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -886,15 +895,9 @@
     <tableColumn id="3" xr3:uid="{F1791E7D-AF62-49CC-ADA0-28D296CA53D8}" name="Municipio" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{8F2E51F9-2CCC-44BD-AAE9-AAA9AD95EAB9}" name="Meta" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{9A0F867A-42F5-4408-8618-F8118EF95570}" name="Beneficiarios_En_Operacion" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{D4DB0C7D-54BE-4FA9-9693-E7E19341D90D}" name="Meta Tiempo en servicio" dataDxfId="2">
-      <calculatedColumnFormula>+Tabla3[[#This Row],[Meta]]*18</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{09D41BD8-350E-47D5-94CA-F92793A4632F}" name="Tiempo en servicio" dataDxfId="1">
-      <calculatedColumnFormula>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{12329CE4-6DCD-4769-8F3B-50CD452C57C0}" name="Avance" dataDxfId="0" dataCellStyle="Porcentaje">
-      <calculatedColumnFormula>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="7" xr3:uid="{D4DB0C7D-54BE-4FA9-9693-E7E19341D90D}" name="Meta Tiempo en servicio" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{09D41BD8-350E-47D5-94CA-F92793A4632F}" name="Tiempo en servicio" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{12329CE4-6DCD-4769-8F3B-50CD452C57C0}" name="Avance" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1200,7 +1203,7 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1258,15 +1261,12 @@
         <v>714</v>
       </c>
       <c r="F2" s="10">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>80676</v>
       </c>
       <c r="G2" s="10">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>23.8</v>
       </c>
       <c r="H2" s="14">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>2.9500718925083052E-4</v>
       </c>
     </row>
@@ -1287,15 +1287,12 @@
         <v>89</v>
       </c>
       <c r="F3" s="11">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>47484</v>
       </c>
       <c r="G3" s="11">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>2.9666666666666668</v>
       </c>
       <c r="H3" s="15">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>6.2477185297503719E-5</v>
       </c>
     </row>
@@ -1316,15 +1313,12 @@
         <v>0</v>
       </c>
       <c r="F4" s="10">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>34236</v>
       </c>
       <c r="G4" s="10">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H4" s="14">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1335,7 +1329,7 @@
       <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="7">
@@ -1345,15 +1339,12 @@
         <v>0</v>
       </c>
       <c r="F5" s="11">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>32760</v>
       </c>
       <c r="G5" s="11">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H5" s="15">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1374,15 +1365,12 @@
         <v>0</v>
       </c>
       <c r="F6" s="10">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>22392</v>
       </c>
       <c r="G6" s="10">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H6" s="14">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1403,15 +1391,12 @@
         <v>0</v>
       </c>
       <c r="F7" s="11">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>20970</v>
       </c>
       <c r="G7" s="11">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H7" s="15">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1432,15 +1417,12 @@
         <v>0</v>
       </c>
       <c r="F8" s="10">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>15462</v>
       </c>
       <c r="G8" s="10">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H8" s="14">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1461,15 +1443,12 @@
         <v>0</v>
       </c>
       <c r="F9" s="11">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>14364</v>
       </c>
       <c r="G9" s="11">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H9" s="15">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1490,15 +1469,12 @@
         <v>0</v>
       </c>
       <c r="F10" s="10">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>12960</v>
       </c>
       <c r="G10" s="10">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H10" s="14">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1519,15 +1495,12 @@
         <v>0</v>
       </c>
       <c r="F11" s="11">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>12096</v>
       </c>
       <c r="G11" s="11">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H11" s="15">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1548,15 +1521,12 @@
         <v>0</v>
       </c>
       <c r="F12" s="10">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>11034</v>
       </c>
       <c r="G12" s="10">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H12" s="14">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1577,15 +1547,12 @@
         <v>0</v>
       </c>
       <c r="F13" s="11">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>9360</v>
       </c>
       <c r="G13" s="11">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H13" s="15">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1606,15 +1573,12 @@
         <v>0</v>
       </c>
       <c r="F14" s="10">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>8748</v>
       </c>
       <c r="G14" s="10">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H14" s="14">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1635,15 +1599,12 @@
         <v>0</v>
       </c>
       <c r="F15" s="11">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>8496</v>
       </c>
       <c r="G15" s="11">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H15" s="15">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1664,15 +1625,12 @@
         <v>0</v>
       </c>
       <c r="F16" s="10">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>7920</v>
       </c>
       <c r="G16" s="10">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H16" s="14">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1693,15 +1651,12 @@
         <v>0</v>
       </c>
       <c r="F17" s="11">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>7812</v>
       </c>
       <c r="G17" s="11">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H17" s="15">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1722,15 +1677,12 @@
         <v>0</v>
       </c>
       <c r="F18" s="10">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>7542</v>
       </c>
       <c r="G18" s="10">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H18" s="14">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1751,15 +1703,12 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>6984</v>
       </c>
       <c r="G19" s="11">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H19" s="15">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1780,15 +1729,12 @@
         <v>0</v>
       </c>
       <c r="F20" s="10">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>6822</v>
       </c>
       <c r="G20" s="10">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H20" s="14">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1809,15 +1755,12 @@
         <v>0</v>
       </c>
       <c r="F21" s="11">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>6750</v>
       </c>
       <c r="G21" s="11">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H21" s="15">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1838,15 +1781,12 @@
         <v>0</v>
       </c>
       <c r="F22" s="10">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>6354</v>
       </c>
       <c r="G22" s="10">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H22" s="14">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1867,15 +1807,12 @@
         <v>0</v>
       </c>
       <c r="F23" s="11">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>6282</v>
       </c>
       <c r="G23" s="11">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H23" s="15">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1896,15 +1833,12 @@
         <v>0</v>
       </c>
       <c r="F24" s="10">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>6228</v>
       </c>
       <c r="G24" s="10">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H24" s="14">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1925,15 +1859,12 @@
         <v>0</v>
       </c>
       <c r="F25" s="11">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>6102</v>
       </c>
       <c r="G25" s="11">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H25" s="15">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1954,15 +1885,12 @@
         <v>0</v>
       </c>
       <c r="F26" s="10">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>5832</v>
       </c>
       <c r="G26" s="10">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H26" s="14">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -1983,15 +1911,12 @@
         <v>0</v>
       </c>
       <c r="F27" s="11">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>5778</v>
       </c>
       <c r="G27" s="11">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H27" s="15">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2012,15 +1937,12 @@
         <v>0</v>
       </c>
       <c r="F28" s="10">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>5436</v>
       </c>
       <c r="G28" s="10">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H28" s="14">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2041,15 +1963,12 @@
         <v>0</v>
       </c>
       <c r="F29" s="11">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>5004</v>
       </c>
       <c r="G29" s="11">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H29" s="15">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2070,15 +1989,12 @@
         <v>0</v>
       </c>
       <c r="F30" s="10">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>4950</v>
       </c>
       <c r="G30" s="10">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H30" s="14">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2099,15 +2015,12 @@
         <v>0</v>
       </c>
       <c r="F31" s="11">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>4878</v>
       </c>
       <c r="G31" s="11">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H31" s="15">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2128,15 +2041,12 @@
         <v>0</v>
       </c>
       <c r="F32" s="10">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>4752</v>
       </c>
       <c r="G32" s="10">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H32" s="14">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2157,15 +2067,12 @@
         <v>0</v>
       </c>
       <c r="F33" s="11">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>4734</v>
       </c>
       <c r="G33" s="11">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H33" s="15">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2186,15 +2093,12 @@
         <v>0</v>
       </c>
       <c r="F34" s="10">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>4500</v>
       </c>
       <c r="G34" s="10">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H34" s="14">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2215,15 +2119,12 @@
         <v>0</v>
       </c>
       <c r="F35" s="11">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>4338</v>
       </c>
       <c r="G35" s="11">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H35" s="15">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2244,15 +2145,12 @@
         <v>0</v>
       </c>
       <c r="F36" s="10">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>4320</v>
       </c>
       <c r="G36" s="10">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H36" s="14">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2273,15 +2171,12 @@
         <v>0</v>
       </c>
       <c r="F37" s="11">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>4050</v>
       </c>
       <c r="G37" s="11">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H37" s="15">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2302,15 +2197,12 @@
         <v>0</v>
       </c>
       <c r="F38" s="10">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>4032</v>
       </c>
       <c r="G38" s="10">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H38" s="14">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2331,15 +2223,12 @@
         <v>0</v>
       </c>
       <c r="F39" s="11">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>4014</v>
       </c>
       <c r="G39" s="11">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H39" s="15">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2360,15 +2249,12 @@
         <v>0</v>
       </c>
       <c r="F40" s="10">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>3996</v>
       </c>
       <c r="G40" s="10">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H40" s="14">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2389,15 +2275,12 @@
         <v>0</v>
       </c>
       <c r="F41" s="11">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>3960</v>
       </c>
       <c r="G41" s="11">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H41" s="15">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2418,15 +2301,12 @@
         <v>0</v>
       </c>
       <c r="F42" s="10">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>3924</v>
       </c>
       <c r="G42" s="10">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H42" s="14">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2447,15 +2327,12 @@
         <v>0</v>
       </c>
       <c r="F43" s="11">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>3438</v>
       </c>
       <c r="G43" s="11">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H43" s="15">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2476,15 +2353,12 @@
         <v>0</v>
       </c>
       <c r="F44" s="10">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>3366</v>
       </c>
       <c r="G44" s="10">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H44" s="14">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2505,15 +2379,12 @@
         <v>0</v>
       </c>
       <c r="F45" s="11">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>3366</v>
       </c>
       <c r="G45" s="11">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H45" s="15">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2534,15 +2405,12 @@
         <v>0</v>
       </c>
       <c r="F46" s="10">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>3222</v>
       </c>
       <c r="G46" s="10">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H46" s="14">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2563,15 +2431,12 @@
         <v>0</v>
       </c>
       <c r="F47" s="11">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>3150</v>
       </c>
       <c r="G47" s="11">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H47" s="15">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2592,15 +2457,12 @@
         <v>0</v>
       </c>
       <c r="F48" s="10">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>3024</v>
       </c>
       <c r="G48" s="10">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H48" s="14">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2621,15 +2483,12 @@
         <v>0</v>
       </c>
       <c r="F49" s="11">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>3024</v>
       </c>
       <c r="G49" s="11">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H49" s="15">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2650,15 +2509,12 @@
         <v>0</v>
       </c>
       <c r="F50" s="10">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>2934</v>
       </c>
       <c r="G50" s="10">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H50" s="14">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2679,15 +2535,12 @@
         <v>0</v>
       </c>
       <c r="F51" s="11">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>2880</v>
       </c>
       <c r="G51" s="11">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H51" s="15">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2708,15 +2561,12 @@
         <v>0</v>
       </c>
       <c r="F52" s="10">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>2772</v>
       </c>
       <c r="G52" s="10">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H52" s="14">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2737,15 +2587,12 @@
         <v>0</v>
       </c>
       <c r="F53" s="11">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>2682</v>
       </c>
       <c r="G53" s="11">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H53" s="15">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2766,15 +2613,12 @@
         <v>0</v>
       </c>
       <c r="F54" s="10">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>2628</v>
       </c>
       <c r="G54" s="10">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H54" s="14">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2795,15 +2639,12 @@
         <v>0</v>
       </c>
       <c r="F55" s="11">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>2592</v>
       </c>
       <c r="G55" s="11">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H55" s="15">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
@@ -2824,15 +2665,12 @@
         <v>0</v>
       </c>
       <c r="F56" s="12">
-        <f>+Tabla3[[#This Row],[Meta]]*18</f>
         <v>2574</v>
       </c>
       <c r="G56" s="12">
-        <f>Tabla3[[#This Row],[Beneficiarios_En_Operacion]]*1/30</f>
         <v>0</v>
       </c>
       <c r="H56" s="16">
-        <f>Tabla3[[#This Row],[Tiempo en servicio]]/Tabla3[[#This Row],[Meta Tiempo en servicio]]</f>
         <v>0</v>
       </c>
     </row>
